--- a/biology/Médecine/Syndrome_de_malabsorption/Syndrome_de_malabsorption.xlsx
+++ b/biology/Médecine/Syndrome_de_malabsorption/Syndrome_de_malabsorption.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de malabsorption intestinale est une pathologie fréquente qui perturbe plus ou moins profondément l'absorption de multiples nutriments, lors de la digestion, à la suite d'une altération de la barrière muqueuse de l'intestin grêle. Les principaux signes cliniques sont la diarrhée, l'amaigrissement et des carences observables cliniquement ou à mettre en évidence en biologie. 
-La malabsorption intestinale est définie par l’incapacité du tube digestif à absorber une grande partie des substances alimentaires du bol alimentaire et qui sont nécessaires au maintien d'une santé correcte[1]. Elle peut être très sélective, ne touchant que certaines substances bien précises (notamment parmi les vitamines, sels minéraux, lipides ou glucides) ou être pratiquement globale, à l'origine d'un amaigrissement potentiellement sévère[2]. On trouve tous les niveaux intermédiaires entre ces deux extrêmes.
+La malabsorption intestinale est définie par l’incapacité du tube digestif à absorber une grande partie des substances alimentaires du bol alimentaire et qui sont nécessaires au maintien d'une santé correcte. Elle peut être très sélective, ne touchant que certaines substances bien précises (notamment parmi les vitamines, sels minéraux, lipides ou glucides) ou être pratiquement globale, à l'origine d'un amaigrissement potentiellement sévère. On trouve tous les niveaux intermédiaires entre ces deux extrêmes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire médicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une des maladies évoquées par Molière dans son théâtre. Elle touche l'homme et les animaux, autrefois nommée «lienterie»[3] ou «lienteria»[3]; le mot « lienterie » a notamment été utilisé pour les vers à soie en élevage. La Lienteria était autrefois attribuée à l'ingestion de mauvais aliments[4] ou à d'autres causes, et présentée comme une « [...] espèce de dévotement dans lequel on rend les aliments tels qu'on les a pris »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une des maladies évoquées par Molière dans son théâtre. Elle touche l'homme et les animaux, autrefois nommée «lienterie» ou «lienteria»; le mot « lienterie » a notamment été utilisé pour les vers à soie en élevage. La Lienteria était autrefois attribuée à l'ingestion de mauvais aliments ou à d'autres causes, et présentée comme une « [...] espèce de dévotement dans lequel on rend les aliments tels qu'on les a pris ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Chez le ver à soie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lienterie est présentée en 1842 comme « la plus dangereuse et la plus redoutable » des maladies qui peut affecter cet insecte, « due à l'ignorance ou à l'imprévoyance des magnaniers. Les vers à soie peuvent en être atteints à tous les âges, même dès leur naissance après leur premier repas, selon que la feuille qui leur a été donnée, a pu convenir à la délicatesse de leurs organes. C'est une irritation dans les voies intestinales qui les empêche de digérer ; elle passe toujours inaperçue, elle donne naissance au ténesme, à la dissenterie, et prédispose les vers à subir l'influence de toutes les autres maladies déjà connues »[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lienterie est présentée en 1842 comme « la plus dangereuse et la plus redoutable » des maladies qui peut affecter cet insecte, « due à l'ignorance ou à l'imprévoyance des magnaniers. Les vers à soie peuvent en être atteints à tous les âges, même dès leur naissance après leur premier repas, selon que la feuille qui leur a été donnée, a pu convenir à la délicatesse de leurs organes. C'est une irritation dans les voies intestinales qui les empêche de digérer ; elle passe toujours inaperçue, elle donne naissance au ténesme, à la dissenterie, et prédispose les vers à subir l'influence de toutes les autres maladies déjà connues ».
 </t>
         </is>
       </c>
@@ -574,17 +590,19 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Asthénie, amaigrissement en fonction de l'importance de la stéatorrhée, malgré parfois une hyperphagie paradoxale[2].
-Retard de croissance chez l'enfant[2] .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Asthénie, amaigrissement en fonction de l'importance de la stéatorrhée, malgré parfois une hyperphagie paradoxale.
+Retard de croissance chez l'enfant .
 Stéatorrhée: émission de selles grasses, molles et colantes.
 Œdèmes et ascite: par carence en albumine, diminuant la pression osmotique du sang.
 Hématomes, épistaxis ou gingivorragies: par carence en vitamine K
 Ostéomalacie et rachitisme: par carence en calcium et/ou vitamine D
-Anémie macrocytaire: par carence en acide folique et/ou en vitamine B12[2] ou anémie microcytaire par carence en fer.
+Anémie macrocytaire: par carence en acide folique et/ou en vitamine B12 ou anémie microcytaire par carence en fer.
 Alopécie: par carence en fer, cuivre, zinc, silicium, ou vitamines B
-Baisse de la vision nocturne : par carence en vitamine A[2]
+Baisse de la vision nocturne : par carence en vitamine A
 Polyneuropathie: par carence en certaines vitamines B.</t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic s'établit par les symptômes et par certains examens complémentaires :
 Dosage des graisses dans les selles pour quantifier la stéatorrhée
@@ -650,8 +670,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Maldigestion
-Pré-entérocytaire[6]
+          <t>Maldigestion</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pré-entérocytaire
 Cause pancréatique : cancer du pancréas, pancréatite chronique, etc.
 Cholestase
 Colonisation bactérienne  chronique de l'intestin grêle
